--- a/02_詳細設計書/詳細設計書_テーブル設計.xlsx
+++ b/02_詳細設計書/詳細設計書_テーブル設計.xlsx
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>worktime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>uptime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,6 +215,10 @@
   </si>
   <si>
     <t>UNIQUE(user_id), NOTNULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>workdate</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,7 +642,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>5</v>
@@ -694,13 +694,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>5</v>
@@ -836,36 +836,36 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -890,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -907,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
@@ -941,7 +941,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1">
         <v>20</v>
@@ -955,16 +955,16 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>15</v>
@@ -972,14 +972,14 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>15</v>
@@ -987,16 +987,16 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>15</v>

--- a/02_詳細設計書/詳細設計書_テーブル設計.xlsx
+++ b/02_詳細設計書/詳細設計書_テーブル設計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>テーブル定義</t>
     <rPh sb="4" eb="6">
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>workdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -641,14 +645,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -787,7 +792,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>

--- a/02_詳細設計書/詳細設計書_テーブル設計.xlsx
+++ b/02_詳細設計書/詳細設計書_テーブル設計.xlsx
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -75,10 +71,6 @@
   </si>
   <si>
     <t>serial</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>character</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -223,6 +215,14 @@
   </si>
   <si>
     <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※tomcat管理用にのみ使用</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -299,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +316,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,20 +661,20 @@
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -682,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>5</v>
@@ -691,66 +694,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -761,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -769,42 +775,43 @@
       <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -816,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
@@ -830,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>5</v>
@@ -841,170 +848,170 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1">
         <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
